--- a/natmiOut/OldD0/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Agtr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.22581829056438</v>
+        <v>5.788972999999999</v>
       </c>
       <c r="H2">
-        <v>5.22581829056438</v>
+        <v>17.366919</v>
       </c>
       <c r="I2">
-        <v>0.9425815882963678</v>
+        <v>0.9474260381515466</v>
       </c>
       <c r="J2">
-        <v>0.9425815882963678</v>
+        <v>0.9474260381515467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.3536144419688</v>
+        <v>1.202916333333333</v>
       </c>
       <c r="N2">
-        <v>20.3536144419688</v>
+        <v>3.608749</v>
       </c>
       <c r="O2">
-        <v>0.3814525015076876</v>
+        <v>0.02173550655091635</v>
       </c>
       <c r="P2">
-        <v>0.3814525015076876</v>
+        <v>0.02173550655091635</v>
       </c>
       <c r="Q2">
-        <v>106.3642906299359</v>
+        <v>6.963650174925667</v>
       </c>
       <c r="R2">
-        <v>106.3642906299359</v>
+        <v>62.67285157433101</v>
       </c>
       <c r="S2">
-        <v>0.3595501047307388</v>
+        <v>0.02059278485875167</v>
       </c>
       <c r="T2">
-        <v>0.3595501047307388</v>
+        <v>0.02059278485875167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.22581829056438</v>
+        <v>5.788972999999999</v>
       </c>
       <c r="H3">
-        <v>5.22581829056438</v>
+        <v>17.366919</v>
       </c>
       <c r="I3">
-        <v>0.9425815882963678</v>
+        <v>0.9474260381515466</v>
       </c>
       <c r="J3">
-        <v>0.9425815882963678</v>
+        <v>0.9474260381515467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0045739603128</v>
+        <v>20.52978033333333</v>
       </c>
       <c r="N3">
-        <v>33.0045739603128</v>
+        <v>61.589341</v>
       </c>
       <c r="O3">
-        <v>0.6185474984923124</v>
+        <v>0.3709527941045833</v>
       </c>
       <c r="P3">
-        <v>0.6185474984923124</v>
+        <v>0.3709527941045833</v>
       </c>
       <c r="Q3">
-        <v>172.4759062740875</v>
+        <v>118.8463440455977</v>
       </c>
       <c r="R3">
-        <v>172.4759062740875</v>
+        <v>1069.617096410379</v>
       </c>
       <c r="S3">
-        <v>0.5830314835656289</v>
+        <v>0.3514503360597517</v>
       </c>
       <c r="T3">
-        <v>0.5830314835656289</v>
+        <v>0.3514503360597518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.318336566109174</v>
+        <v>5.788972999999999</v>
       </c>
       <c r="H4">
-        <v>0.318336566109174</v>
+        <v>17.366919</v>
       </c>
       <c r="I4">
-        <v>0.05741841170363218</v>
+        <v>0.9474260381515466</v>
       </c>
       <c r="J4">
-        <v>0.05741841170363218</v>
+        <v>0.9474260381515467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3536144419688</v>
+        <v>33.61068033333333</v>
       </c>
       <c r="N4">
-        <v>20.3536144419688</v>
+        <v>100.832041</v>
       </c>
       <c r="O4">
-        <v>0.3814525015076876</v>
+        <v>0.6073116993445002</v>
       </c>
       <c r="P4">
-        <v>0.3814525015076876</v>
+        <v>0.6073116993445002</v>
       </c>
       <c r="Q4">
-        <v>6.47929972936644</v>
+        <v>194.5713209612977</v>
       </c>
       <c r="R4">
-        <v>6.47929972936644</v>
+        <v>1751.141888651679</v>
       </c>
       <c r="S4">
-        <v>0.02190239677694878</v>
+        <v>0.575382917233043</v>
       </c>
       <c r="T4">
-        <v>0.02190239677694878</v>
+        <v>0.5753829172330431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.321238</v>
+      </c>
+      <c r="H5">
+        <v>0.963714</v>
+      </c>
+      <c r="I5">
+        <v>0.05257396184845335</v>
+      </c>
+      <c r="J5">
+        <v>0.05257396184845335</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.202916333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.608749</v>
+      </c>
+      <c r="O5">
+        <v>0.02173550655091635</v>
+      </c>
+      <c r="P5">
+        <v>0.02173550655091635</v>
+      </c>
+      <c r="Q5">
+        <v>0.3864224370873333</v>
+      </c>
+      <c r="R5">
+        <v>3.477801933786</v>
+      </c>
+      <c r="S5">
+        <v>0.001142721692164684</v>
+      </c>
+      <c r="T5">
+        <v>0.001142721692164684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.318336566109174</v>
-      </c>
-      <c r="H5">
-        <v>0.318336566109174</v>
-      </c>
-      <c r="I5">
-        <v>0.05741841170363218</v>
-      </c>
-      <c r="J5">
-        <v>0.05741841170363218</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>33.0045739603128</v>
-      </c>
-      <c r="N5">
-        <v>33.0045739603128</v>
-      </c>
-      <c r="O5">
-        <v>0.6185474984923124</v>
-      </c>
-      <c r="P5">
-        <v>0.6185474984923124</v>
-      </c>
-      <c r="Q5">
-        <v>10.50656274042224</v>
-      </c>
-      <c r="R5">
-        <v>10.50656274042224</v>
-      </c>
-      <c r="S5">
-        <v>0.0355160149266834</v>
-      </c>
-      <c r="T5">
-        <v>0.0355160149266834</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.321238</v>
+      </c>
+      <c r="H6">
+        <v>0.963714</v>
+      </c>
+      <c r="I6">
+        <v>0.05257396184845335</v>
+      </c>
+      <c r="J6">
+        <v>0.05257396184845335</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.52978033333333</v>
+      </c>
+      <c r="N6">
+        <v>61.589341</v>
+      </c>
+      <c r="O6">
+        <v>0.3709527941045833</v>
+      </c>
+      <c r="P6">
+        <v>0.3709527941045833</v>
+      </c>
+      <c r="Q6">
+        <v>6.594945574719334</v>
+      </c>
+      <c r="R6">
+        <v>59.354510172474</v>
+      </c>
+      <c r="S6">
+        <v>0.01950245804483153</v>
+      </c>
+      <c r="T6">
+        <v>0.01950245804483153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.321238</v>
+      </c>
+      <c r="H7">
+        <v>0.963714</v>
+      </c>
+      <c r="I7">
+        <v>0.05257396184845335</v>
+      </c>
+      <c r="J7">
+        <v>0.05257396184845335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>33.61068033333333</v>
+      </c>
+      <c r="N7">
+        <v>100.832041</v>
+      </c>
+      <c r="O7">
+        <v>0.6073116993445002</v>
+      </c>
+      <c r="P7">
+        <v>0.6073116993445002</v>
+      </c>
+      <c r="Q7">
+        <v>10.79702772891933</v>
+      </c>
+      <c r="R7">
+        <v>97.173249560274</v>
+      </c>
+      <c r="S7">
+        <v>0.03192878211145713</v>
+      </c>
+      <c r="T7">
+        <v>0.03192878211145713</v>
       </c>
     </row>
   </sheetData>
